--- a/Макеты/19/ВА_ПроцессЦена+Mercury.xlsx
+++ b/Макеты/19/ВА_ПроцессЦена+Mercury.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4B8A7B-4F92-4C06-A028-9AE2ACED3706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB6E30F-BF73-47C9-B27C-DF1830150CA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>VA - ProcessPrice</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>March 2024</t>
+  </si>
+  <si>
+    <t>2900001970198</t>
+  </si>
+  <si>
+    <t>2900001871419</t>
+  </si>
+  <si>
+    <t>2900001871389</t>
   </si>
 </sst>
 </file>
@@ -70,15 +79,21 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -194,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -234,6 +249,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -578,118 +608,137 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="35.5" style="14" customWidth="1"/>
+    <col min="4" max="6" width="16.33203125" style="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:5" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="C5" s="16"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="F5" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="4">
+      <c r="C6" s="17"/>
+      <c r="D6" s="4">
         <v>5250000</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>5400000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>5550000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
         <v>1950000</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>2000000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>2050000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4">
         <v>2050000</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>2100000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>2150000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4">
         <v>1250000</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>1300000</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>1350000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup pageOrder="overThenDown" orientation="portrait"/>
